--- a/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>测试评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,43 @@
     <t>测试需求规格说明书V1.0.0.200325
 1.2节
 3.2节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试需求规格说明书V1.0.4.200531
+第4章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试缺少用户未登录的测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，增加5个用户未登录的测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,17 +159,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -243,13 +312,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A2:D15"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F15"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="序号" dataDxfId="5"/>
     <tableColumn id="2" name="需求分析评审对象" dataDxfId="4"/>
     <tableColumn id="3" name="评审意见" dataDxfId="3"/>
     <tableColumn id="4" name="修改情况" dataDxfId="2"/>
+    <tableColumn id="5" name="修改人" dataDxfId="1"/>
+    <tableColumn id="6" name="用时" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -518,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -532,15 +603,15 @@
     <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,20 +624,96 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576C6A7B-234E-483E-B39D-4E77ACEF95F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>测试评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,13 +90,49 @@
   </si>
   <si>
     <t>接受，增加5个用户未登录的测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对D组的测试需求说明书、测试报告、软件的评审工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本满足要求，但是缺少部分边缘测试内容，导致出现bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘安佶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对B组的测试需求说明书、测试报告、软件的评审工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本满足要求，软件完成情况较为完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成根据A、B组评审意见，对本小组的测试报告单元测试表格内容、流程图等修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成根据C、D组评审意见，对本小组的测试报告补充部分缺失单元测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,15 +349,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A2:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="4"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="3"/>
-    <tableColumn id="4" name="修改情况" dataDxfId="2"/>
-    <tableColumn id="5" name="修改人" dataDxfId="1"/>
-    <tableColumn id="6" name="用时" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="需求分析评审对象" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="评审意见" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="修改情况" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="修改人" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="用时" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -588,11 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -671,21 +708,67 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>

--- a/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576C6A7B-234E-483E-B39D-4E77ACEF95F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>测试评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,13 +125,41 @@
   </si>
   <si>
     <t>完成根据C、D组评审意见，对本小组的测试报告补充部分缺失单元测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对C组的测试需求说明书、测试报告、软件的评审工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本满足要求，文档部分格式有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会确定对A、B组评审意见的接情况，根据自己负责的评审意见，对本小组的测试报告和软件，进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会确定对C、D组评审意见的接情况，根据自己负责的评审意见，对本小组的测试报告和软件，进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,15 +376,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A2:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="需求分析评审对象" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="评审意见" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="修改情况" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="修改人" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="用时" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" name="需求分析评审对象" dataDxfId="4"/>
+    <tableColumn id="3" name="评审意见" dataDxfId="3"/>
+    <tableColumn id="4" name="修改情况" dataDxfId="2"/>
+    <tableColumn id="5" name="修改人" dataDxfId="1"/>
+    <tableColumn id="6" name="用时" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,22 +652,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,7 +675,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -688,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -708,7 +735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -725,7 +752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -742,7 +769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -756,7 +783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -770,31 +797,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>

--- a/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B3A2F1-FB4A-431A-9F2B-059DDD90608D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>测试评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +150,34 @@
   </si>
   <si>
     <t>开会确定对C、D组评审意见的接情况，根据自己负责的评审意见，对本小组的测试报告和软件，进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对C组的测试需求说明书、测试报告、软件的评审工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对A组的测试需求说明书、测试报告、软件的评审工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件方面存在安全性问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟秋宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会确定对C、D组评审意见的接情况，对非能性需求测试进行了修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,15 +405,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A2:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="4"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="3"/>
-    <tableColumn id="4" name="修改情况" dataDxfId="2"/>
-    <tableColumn id="5" name="修改人" dataDxfId="1"/>
-    <tableColumn id="6" name="用时" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="需求分析评审对象" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="评审意见" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="修改情况" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="修改人" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="用时" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,22 +681,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +704,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -695,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -715,7 +744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -735,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -752,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -769,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -783,7 +812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -797,7 +826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -814,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -831,7 +860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -845,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -859,17 +888,53 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验5 软件测试评审工作统计.xlsx
@@ -1,206 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B3A2F1-FB4A-431A-9F2B-059DDD90608D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>测试评审意见统计和修改记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求分析评审对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>评审意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少可修改性、高效性对应测试。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>用时</t>
   </si>
   <si>
     <t>测试需求规格说明书V1.0.0.200325
 1.2节
 3.2节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少可修改性、高效性对应测试。</t>
+  </si>
+  <si>
+    <t>接受</t>
+  </si>
+  <si>
+    <t>张3</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
   <si>
     <t>测试需求规格说明书V1.0.4.200531
 第4章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>集成测试缺少用户未登录的测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，增加5个用户未登录的测试用例</t>
   </si>
   <si>
     <t>常佳辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，增加5个用户未登录的测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成对D组的测试需求说明书、测试报告、软件的评审工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基本满足要求，但是缺少部分边缘测试内容，导致出现bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>潘安佶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成对B组的测试需求说明书、测试报告、软件的评审工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基本满足要求，软件完成情况较为完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成根据A、B组评审意见，对本小组的测试报告单元测试表格内容、流程图等修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成根据C、D组评审意见，对本小组的测试报告补充部分缺失单元测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对C组的测试需求说明书、测试报告、软件的评审工作</t>
+  </si>
+  <si>
+    <t>基本满足要求，文档部分格式有问题</t>
   </si>
   <si>
     <t>王康明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成对C组的测试需求说明书、测试报告、软件的评审工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本满足要求，文档部分格式有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开会确定对A、B组评审意见的接情况，根据自己负责的评审意见，对本小组的测试报告和软件，进行修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开会确定对C、D组评审意见的接情况，根据自己负责的评审意见，对本小组的测试报告和软件，进行修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成对C组的测试需求说明书、测试报告、软件的评审工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件方面存在安全性问题</t>
+  </si>
+  <si>
+    <t>牟秋宇</t>
   </si>
   <si>
     <t>完成对A组的测试需求说明书、测试报告、软件的评审工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件方面存在安全性问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牟秋宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开会确定对C、D组评审意见的接情况，对非能性需求测试进行了修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是文档格式等问题</t>
+  </si>
+  <si>
+    <t>张祥国</t>
+  </si>
+  <si>
+    <t>完成根据A、B组评审意见，对本小组的测试报告单元测试内容等修改</t>
+  </si>
+  <si>
+    <t>完成根据C、D组评审意见，对本小组的测试报告单元测试内容等修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +155,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -216,26 +162,367 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,153 +530,396 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,23 +927,20 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A2:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F19" totalsRowShown="0">
+  <autoFilter ref="A2:F19"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="需求分析评审对象" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="评审意见" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="修改情况" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="修改人" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="用时" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="0"/>
+    <tableColumn id="2" name="需求分析评审对象" dataDxfId="1"/>
+    <tableColumn id="3" name="评审意见" dataDxfId="2"/>
+    <tableColumn id="4" name="修改情况" dataDxfId="3"/>
+    <tableColumn id="5" name="修改人" dataDxfId="4"/>
+    <tableColumn id="6" name="用时" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,7 +989,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -497,7 +1024,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -671,40 +1198,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="35.4" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -718,53 +1240,53 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:6">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" ht="43.2" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" ht="28.8" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -781,7 +1303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -798,7 +1320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" ht="43.2" spans="1:6">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -809,142 +1331,201 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:6">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:6">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="11" ht="57.6" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="57.6" spans="1:6">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:6">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="43.2" spans="1:6">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:6">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:6">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="1:6">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="43.2" spans="1:6">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>